--- a/xlsx/country_comparison/global_movement_positive.xlsx
+++ b/xlsx/country_comparison/global_movement_positive.xlsx
@@ -389,13 +389,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>0.26517571884984</v>
+        <v>0.29112426035503</v>
       </c>
       <c r="C2" t="n">
-        <v>0.317948717948718</v>
+        <v>0.296254256526674</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2</v>
+        <v>0.303430079155673</v>
       </c>
     </row>
     <row r="3">
@@ -403,13 +403,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>0.584664536741214</v>
+        <v>0.533727810650888</v>
       </c>
       <c r="C3" t="n">
-        <v>0.576923076923077</v>
+        <v>0.584562996594779</v>
       </c>
       <c r="D3" t="n">
-        <v>0.570909090909091</v>
+        <v>0.54221635883905</v>
       </c>
     </row>
     <row r="4">
@@ -417,13 +417,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>0.178913738019169</v>
+        <v>0.183431952662722</v>
       </c>
       <c r="C4" t="n">
-        <v>0.18974358974359</v>
+        <v>0.187287173666288</v>
       </c>
       <c r="D4" t="n">
-        <v>0.309090909090909</v>
+        <v>0.258575197889182</v>
       </c>
     </row>
     <row r="5">
@@ -431,13 +431,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0830670926517572</v>
+        <v>0.0875739644970414</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0769230769230769</v>
+        <v>0.0624290578887628</v>
       </c>
       <c r="D5" t="n">
-        <v>0.123636363636364</v>
+        <v>0.0527704485488127</v>
       </c>
     </row>
     <row r="6">
@@ -445,13 +445,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0479233226837061</v>
+        <v>0.0497041420118343</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0974358974358974</v>
+        <v>0.0953461975028377</v>
       </c>
       <c r="D6" t="n">
-        <v>0.16</v>
+        <v>0.105540897097625</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/global_movement_positive.xlsx
+++ b/xlsx/country_comparison/global_movement_positive.xlsx
@@ -395,7 +395,7 @@
         <v>0.296254256526674</v>
       </c>
       <c r="D2" t="n">
-        <v>0.303430079155673</v>
+        <v>0.301173402868318</v>
       </c>
     </row>
     <row r="3">
@@ -409,7 +409,7 @@
         <v>0.584562996594779</v>
       </c>
       <c r="D3" t="n">
-        <v>0.54221635883905</v>
+        <v>0.541069100391134</v>
       </c>
     </row>
     <row r="4">
@@ -423,7 +423,7 @@
         <v>0.187287173666288</v>
       </c>
       <c r="D4" t="n">
-        <v>0.258575197889182</v>
+        <v>0.260756192959583</v>
       </c>
     </row>
     <row r="5">
@@ -437,7 +437,7 @@
         <v>0.0624290578887628</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0527704485488127</v>
+        <v>0.0521512385919166</v>
       </c>
     </row>
     <row r="6">
@@ -451,7 +451,7 @@
         <v>0.0953461975028377</v>
       </c>
       <c r="D6" t="n">
-        <v>0.105540897097625</v>
+        <v>0.106910039113429</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/global_movement_positive.xlsx
+++ b/xlsx/country_comparison/global_movement_positive.xlsx
@@ -389,13 +389,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>0.29112426035503</v>
+        <v>0.29039070749736</v>
       </c>
       <c r="C2" t="n">
         <v>0.296254256526674</v>
       </c>
       <c r="D2" t="n">
-        <v>0.301173402868318</v>
+        <v>0.305402425578831</v>
       </c>
     </row>
     <row r="3">
@@ -403,13 +403,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>0.533727810650888</v>
+        <v>0.537486800422387</v>
       </c>
       <c r="C3" t="n">
         <v>0.584562996594779</v>
       </c>
       <c r="D3" t="n">
-        <v>0.541069100391134</v>
+        <v>0.539140022050717</v>
       </c>
     </row>
     <row r="4">
@@ -417,13 +417,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>0.183431952662722</v>
+        <v>0.181626187961985</v>
       </c>
       <c r="C4" t="n">
         <v>0.187287173666288</v>
       </c>
       <c r="D4" t="n">
-        <v>0.260756192959583</v>
+        <v>0.250275633958104</v>
       </c>
     </row>
     <row r="5">
@@ -431,13 +431,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0875739644970414</v>
+        <v>0.0876451953537487</v>
       </c>
       <c r="C5" t="n">
         <v>0.0624290578887628</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0521512385919166</v>
+        <v>0.051819184123484</v>
       </c>
     </row>
     <row r="6">
@@ -445,13 +445,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0497041420118343</v>
+        <v>0.0485744456177402</v>
       </c>
       <c r="C6" t="n">
         <v>0.0953461975028377</v>
       </c>
       <c r="D6" t="n">
-        <v>0.106910039113429</v>
+        <v>0.103638368246968</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/global_movement_positive.xlsx
+++ b/xlsx/country_comparison/global_movement_positive.xlsx
@@ -12,33 +12,54 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t xml:space="preserve"/>
   </si>
   <si>
+    <t xml:space="preserve">France</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Germany</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Italy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Japan</t>
+  </si>
+  <si>
     <t xml:space="preserve">Poland</t>
   </si>
   <si>
+    <t xml:space="preserve">Saudi Arabia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Switzerland</t>
+  </si>
+  <si>
     <t xml:space="preserve">United Kingdom</t>
   </si>
   <si>
     <t xml:space="preserve">United States</t>
   </si>
   <si>
-    <t xml:space="preserve">global_movement_no</t>
-  </si>
-  <si>
-    <t xml:space="preserve">global_movement_spread</t>
-  </si>
-  <si>
-    <t xml:space="preserve">global_movement_demonstrate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">global_movement_strike</t>
-  </si>
-  <si>
-    <t xml:space="preserve">global_movement_donate</t>
+    <t xml:space="preserve">Would not support such a movement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Could sign a petition and spread ideas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Could attend a demonstration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Could go on strike</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Could donate [$100] to a strike fund</t>
   </si>
 </sst>
 </file>
@@ -383,75 +404,201 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B2" t="n">
-        <v>0.29039070749736</v>
+        <v>0.23979466894771</v>
       </c>
       <c r="C2" t="n">
-        <v>0.296254256526674</v>
+        <v>0.304247435167385</v>
       </c>
       <c r="D2" t="n">
-        <v>0.305402425578831</v>
+        <v>0.129348633040703</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.539053905390539</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.231001215732595</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.223728926608166</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.287230218026318</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.283569737606806</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.363539754006076</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.235418398177431</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B3" t="n">
-        <v>0.537486800422387</v>
+        <v>0.582318210675396</v>
       </c>
       <c r="C3" t="n">
-        <v>0.584562996594779</v>
+        <v>0.523879373451116</v>
       </c>
       <c r="D3" t="n">
-        <v>0.539140022050717</v>
+        <v>0.62629651387851</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.44004400440044</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.652008396910262</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.429178902212345</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.508907433177516</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.531819520941345</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.499914056855986</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.465577568035794</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B4" t="n">
-        <v>0.181626187961985</v>
+        <v>0.252774326192832</v>
       </c>
       <c r="C4" t="n">
-        <v>0.187287173666288</v>
+        <v>0.157523341588844</v>
       </c>
       <c r="D4" t="n">
-        <v>0.250275633958104</v>
+        <v>0.293758235870516</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.011001100110011</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.12723113472923</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.247196671666016</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.304876275587259</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.104441344776669</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.200073663959692</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.175390632949928</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0876451953537487</v>
+        <v>0.0715916867662926</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0624290578887628</v>
+        <v>0.105901055382613</v>
       </c>
       <c r="D5" t="n">
-        <v>0.051819184123484</v>
+        <v>0.140088108940267</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.0033003300330033</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.0432050166031793</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.103812643029369</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.0961068222341166</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.0302668804833618</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.0350057246589067</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.146784409725285</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0485744456177402</v>
+        <v>0.0861743439854892</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0953461975028377</v>
+        <v>0.145021142165403</v>
       </c>
       <c r="D6" t="n">
-        <v>0.103638368246968</v>
+        <v>0.164543461011329</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.0132013201320132</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.0358783897679334</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.188856029497639</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.0943122323336228</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.1281189804066</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.126103184486616</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.139103285554912</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/global_movement_positive.xlsx
+++ b/xlsx/country_comparison/global_movement_positive.xlsx
@@ -431,34 +431,34 @@
         <v>11</v>
       </c>
       <c r="B2" t="n">
-        <v>0.23979466894771</v>
+        <v>0.242425445467508</v>
       </c>
       <c r="C2" t="n">
-        <v>0.304247435167385</v>
+        <v>0.327358514902349</v>
       </c>
       <c r="D2" t="n">
-        <v>0.129348633040703</v>
+        <v>0.129110295993056</v>
       </c>
       <c r="E2" t="n">
         <v>0.539053905390539</v>
       </c>
       <c r="F2" t="n">
-        <v>0.231001215732595</v>
+        <v>0.229466078651216</v>
       </c>
       <c r="G2" t="n">
-        <v>0.223728926608166</v>
+        <v>0.22280937894448</v>
       </c>
       <c r="H2" t="n">
-        <v>0.287230218026318</v>
+        <v>0.296317588479497</v>
       </c>
       <c r="I2" t="n">
-        <v>0.283569737606806</v>
+        <v>0.241884185483142</v>
       </c>
       <c r="J2" t="n">
-        <v>0.363539754006076</v>
+        <v>0.365897487665178</v>
       </c>
       <c r="K2" t="n">
-        <v>0.235418398177431</v>
+        <v>0.269151476326904</v>
       </c>
     </row>
     <row r="3">
@@ -466,34 +466,34 @@
         <v>12</v>
       </c>
       <c r="B3" t="n">
-        <v>0.582318210675396</v>
+        <v>0.595757106046777</v>
       </c>
       <c r="C3" t="n">
-        <v>0.523879373451116</v>
+        <v>0.529783747734148</v>
       </c>
       <c r="D3" t="n">
-        <v>0.62629651387851</v>
+        <v>0.623825048859635</v>
       </c>
       <c r="E3" t="n">
         <v>0.44004400440044</v>
       </c>
       <c r="F3" t="n">
-        <v>0.652008396910262</v>
+        <v>0.657497815665218</v>
       </c>
       <c r="G3" t="n">
-        <v>0.429178902212345</v>
+        <v>0.426959694419313</v>
       </c>
       <c r="H3" t="n">
-        <v>0.508907433177516</v>
+        <v>0.500216730420001</v>
       </c>
       <c r="I3" t="n">
-        <v>0.531819520941345</v>
+        <v>0.514541914429777</v>
       </c>
       <c r="J3" t="n">
-        <v>0.499914056855986</v>
+        <v>0.499078807487606</v>
       </c>
       <c r="K3" t="n">
-        <v>0.465577568035794</v>
+        <v>0.44808894542396</v>
       </c>
     </row>
     <row r="4">
@@ -501,34 +501,34 @@
         <v>13</v>
       </c>
       <c r="B4" t="n">
-        <v>0.252774326192832</v>
+        <v>0.226739422816844</v>
       </c>
       <c r="C4" t="n">
-        <v>0.157523341588844</v>
+        <v>0.14804912790891</v>
       </c>
       <c r="D4" t="n">
-        <v>0.293758235870516</v>
+        <v>0.292752333373523</v>
       </c>
       <c r="E4" t="n">
         <v>0.011001100110011</v>
       </c>
       <c r="F4" t="n">
-        <v>0.12723113472923</v>
+        <v>0.120195299863001</v>
       </c>
       <c r="G4" t="n">
-        <v>0.247196671666016</v>
+        <v>0.251523032668089</v>
       </c>
       <c r="H4" t="n">
-        <v>0.304876275587259</v>
+        <v>0.302736165582978</v>
       </c>
       <c r="I4" t="n">
-        <v>0.104441344776669</v>
+        <v>0.143752444216827</v>
       </c>
       <c r="J4" t="n">
-        <v>0.200073663959692</v>
+        <v>0.197211068754112</v>
       </c>
       <c r="K4" t="n">
-        <v>0.175390632949928</v>
+        <v>0.163155297197051</v>
       </c>
     </row>
     <row r="5">
@@ -536,34 +536,34 @@
         <v>14</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0715916867662926</v>
+        <v>0.0703572831847866</v>
       </c>
       <c r="C5" t="n">
-        <v>0.105901055382613</v>
+        <v>0.0925271960415949</v>
       </c>
       <c r="D5" t="n">
-        <v>0.140088108940267</v>
+        <v>0.14324777579146</v>
       </c>
       <c r="E5" t="n">
         <v>0.0033003300330033</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0432050166031793</v>
+        <v>0.040298270478626</v>
       </c>
       <c r="G5" t="n">
-        <v>0.103812643029369</v>
+        <v>0.10248048326778</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0961068222341166</v>
+        <v>0.0904178907540768</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0302668804833618</v>
+        <v>0.0229700541376376</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0350057246589067</v>
+        <v>0.0343950582554669</v>
       </c>
       <c r="K5" t="n">
-        <v>0.146784409725285</v>
+        <v>0.139440173853862</v>
       </c>
     </row>
     <row r="6">
@@ -571,34 +571,34 @@
         <v>15</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0861743439854892</v>
+        <v>0.100761536270312</v>
       </c>
       <c r="C6" t="n">
-        <v>0.145021142165403</v>
+        <v>0.136939195844082</v>
       </c>
       <c r="D6" t="n">
-        <v>0.164543461011329</v>
+        <v>0.1635729089964</v>
       </c>
       <c r="E6" t="n">
         <v>0.0132013201320132</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0358783897679334</v>
+        <v>0.0362051304800816</v>
       </c>
       <c r="G6" t="n">
-        <v>0.188856029497639</v>
+        <v>0.193197769076687</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0943122323336228</v>
+        <v>0.0901645354660863</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1281189804066</v>
+        <v>0.152039532885879</v>
       </c>
       <c r="J6" t="n">
-        <v>0.126103184486616</v>
+        <v>0.123159182312749</v>
       </c>
       <c r="K6" t="n">
-        <v>0.139103285554912</v>
+        <v>0.130036346419347</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/global_movement_positive.xlsx
+++ b/xlsx/country_comparison/global_movement_positive.xlsx
@@ -431,34 +431,34 @@
         <v>11</v>
       </c>
       <c r="B2" t="n">
-        <v>0.242425445467508</v>
+        <v>0.292126173888852</v>
       </c>
       <c r="C2" t="n">
-        <v>0.327358514902349</v>
+        <v>0.307904285609651</v>
       </c>
       <c r="D2" t="n">
-        <v>0.129110295993056</v>
+        <v>0.187573370377897</v>
       </c>
       <c r="E2" t="n">
-        <v>0.539053905390539</v>
+        <v>0.438132898155942</v>
       </c>
       <c r="F2" t="n">
-        <v>0.229466078651216</v>
+        <v>0.297710872111071</v>
       </c>
       <c r="G2" t="n">
-        <v>0.22280937894448</v>
+        <v>0.254377613629726</v>
       </c>
       <c r="H2" t="n">
-        <v>0.296317588479497</v>
+        <v>0.258334064618638</v>
       </c>
       <c r="I2" t="n">
-        <v>0.241884185483142</v>
+        <v>0.29727185695767</v>
       </c>
       <c r="J2" t="n">
-        <v>0.365897487665178</v>
+        <v>0.307454837956372</v>
       </c>
       <c r="K2" t="n">
-        <v>0.269151476326904</v>
+        <v>0.352403853742401</v>
       </c>
     </row>
     <row r="3">
@@ -466,34 +466,34 @@
         <v>12</v>
       </c>
       <c r="B3" t="n">
-        <v>0.595757106046777</v>
+        <v>0.531969043616958</v>
       </c>
       <c r="C3" t="n">
-        <v>0.529783747734148</v>
+        <v>0.540113096960534</v>
       </c>
       <c r="D3" t="n">
-        <v>0.623825048859635</v>
+        <v>0.544120086324907</v>
       </c>
       <c r="E3" t="n">
-        <v>0.44004400440044</v>
+        <v>0.509992559848303</v>
       </c>
       <c r="F3" t="n">
-        <v>0.657497815665218</v>
+        <v>0.511295767625297</v>
       </c>
       <c r="G3" t="n">
-        <v>0.426959694419313</v>
+        <v>0.397963988421599</v>
       </c>
       <c r="H3" t="n">
-        <v>0.500216730420001</v>
+        <v>0.554778722494115</v>
       </c>
       <c r="I3" t="n">
-        <v>0.514541914429777</v>
+        <v>0.50784713729023</v>
       </c>
       <c r="J3" t="n">
-        <v>0.499078807487606</v>
+        <v>0.558998807364441</v>
       </c>
       <c r="K3" t="n">
-        <v>0.44808894542396</v>
+        <v>0.460086498093939</v>
       </c>
     </row>
     <row r="4">
@@ -501,34 +501,34 @@
         <v>13</v>
       </c>
       <c r="B4" t="n">
-        <v>0.226739422816844</v>
+        <v>0.235563603528592</v>
       </c>
       <c r="C4" t="n">
-        <v>0.14804912790891</v>
+        <v>0.192009615742423</v>
       </c>
       <c r="D4" t="n">
-        <v>0.292752333373523</v>
+        <v>0.28397902829881</v>
       </c>
       <c r="E4" t="n">
-        <v>0.011001100110011</v>
+        <v>0.0422229809409492</v>
       </c>
       <c r="F4" t="n">
-        <v>0.120195299863001</v>
+        <v>0.148934019877346</v>
       </c>
       <c r="G4" t="n">
-        <v>0.251523032668089</v>
+        <v>0.244114390103491</v>
       </c>
       <c r="H4" t="n">
-        <v>0.302736165582978</v>
+        <v>0.29425561428888</v>
       </c>
       <c r="I4" t="n">
-        <v>0.143752444216827</v>
+        <v>0.17381038205627</v>
       </c>
       <c r="J4" t="n">
-        <v>0.197211068754112</v>
+        <v>0.200228432646575</v>
       </c>
       <c r="K4" t="n">
-        <v>0.163155297197051</v>
+        <v>0.181965591971567</v>
       </c>
     </row>
     <row r="5">
@@ -536,34 +536,34 @@
         <v>14</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0703572831847866</v>
+        <v>0.0661378360743018</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0925271960415949</v>
+        <v>0.117417030403255</v>
       </c>
       <c r="D5" t="n">
-        <v>0.14324777579146</v>
+        <v>0.14737397327551</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0033003300330033</v>
+        <v>0.0210618144101098</v>
       </c>
       <c r="F5" t="n">
-        <v>0.040298270478626</v>
+        <v>0.0908921574509138</v>
       </c>
       <c r="G5" t="n">
-        <v>0.10248048326778</v>
+        <v>0.0972110483680121</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0904178907540768</v>
+        <v>0.119482879484785</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0229700541376376</v>
+        <v>0.0510739198612261</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0343950582554669</v>
+        <v>0.0536130009809188</v>
       </c>
       <c r="K5" t="n">
-        <v>0.139440173853862</v>
+        <v>0.0896189604511872</v>
       </c>
     </row>
     <row r="6">
@@ -571,34 +571,34 @@
         <v>15</v>
       </c>
       <c r="B6" t="n">
-        <v>0.100761536270312</v>
+        <v>0.0761853299328478</v>
       </c>
       <c r="C6" t="n">
-        <v>0.136939195844082</v>
+        <v>0.104358469619261</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1635729089964</v>
+        <v>0.118711947628733</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0132013201320132</v>
+        <v>0.0243882848262774</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0362051304800816</v>
+        <v>0.0681470589128383</v>
       </c>
       <c r="G6" t="n">
-        <v>0.193197769076687</v>
+        <v>0.182638939282045</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0901645354660863</v>
+        <v>0.0976383557378283</v>
       </c>
       <c r="I6" t="n">
-        <v>0.152039532885879</v>
+        <v>0.126603223198367</v>
       </c>
       <c r="J6" t="n">
-        <v>0.123159182312749</v>
+        <v>0.127389136056574</v>
       </c>
       <c r="K6" t="n">
-        <v>0.130036346419347</v>
+        <v>0.12590755404796</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/global_movement_positive.xlsx
+++ b/xlsx/country_comparison/global_movement_positive.xlsx
@@ -12,11 +12,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t xml:space="preserve"/>
   </si>
   <si>
+    <t xml:space="preserve">$ bold('All')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$ bold('Europe')</t>
+  </si>
+  <si>
     <t xml:space="preserve">France</t>
   </si>
   <si>
@@ -26,25 +32,25 @@
     <t xml:space="preserve">Italy</t>
   </si>
   <si>
+    <t xml:space="preserve">Poland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">United Kingdom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Switzerland</t>
+  </si>
+  <si>
     <t xml:space="preserve">Japan</t>
   </si>
   <si>
-    <t xml:space="preserve">Poland</t>
-  </si>
-  <si>
     <t xml:space="preserve">Saudi Arabia</t>
   </si>
   <si>
-    <t xml:space="preserve">Spain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Switzerland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">United Kingdom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">United States</t>
+    <t xml:space="preserve">USA</t>
   </si>
   <si>
     <t xml:space="preserve">Would not support such a movement</t>
@@ -425,180 +431,216 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B2" t="n">
-        <v>0.292126173888852</v>
+        <v>0.316020506276079</v>
       </c>
       <c r="C2" t="n">
-        <v>0.307904285609651</v>
+        <v>0.279543596635423</v>
       </c>
       <c r="D2" t="n">
-        <v>0.187573370377897</v>
+        <v>0.2964725127803</v>
       </c>
       <c r="E2" t="n">
-        <v>0.438132898155942</v>
+        <v>0.292842474423991</v>
       </c>
       <c r="F2" t="n">
-        <v>0.297710872111071</v>
+        <v>0.185514454040861</v>
       </c>
       <c r="G2" t="n">
-        <v>0.254377613629726</v>
+        <v>0.284960091155011</v>
       </c>
       <c r="H2" t="n">
-        <v>0.258334064618638</v>
+        <v>0.265356112968132</v>
       </c>
       <c r="I2" t="n">
-        <v>0.29727185695767</v>
+        <v>0.325048247399732</v>
       </c>
       <c r="J2" t="n">
-        <v>0.307454837956372</v>
+        <v>0.386827025445852</v>
       </c>
       <c r="K2" t="n">
-        <v>0.352403853742401</v>
+        <v>0.43823230383526</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.26364498200857</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.313910668370819</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B3" t="n">
-        <v>0.531969043616958</v>
+        <v>0.512219604565784</v>
       </c>
       <c r="C3" t="n">
-        <v>0.540113096960534</v>
+        <v>0.542896550674237</v>
       </c>
       <c r="D3" t="n">
-        <v>0.544120086324907</v>
+        <v>0.535827320778905</v>
       </c>
       <c r="E3" t="n">
-        <v>0.509992559848303</v>
+        <v>0.539225355860669</v>
       </c>
       <c r="F3" t="n">
-        <v>0.511295767625297</v>
+        <v>0.574019337287482</v>
       </c>
       <c r="G3" t="n">
-        <v>0.397963988421599</v>
+        <v>0.522350021312604</v>
       </c>
       <c r="H3" t="n">
-        <v>0.554778722494115</v>
+        <v>0.555062534757864</v>
       </c>
       <c r="I3" t="n">
-        <v>0.50784713729023</v>
+        <v>0.53810514158223</v>
       </c>
       <c r="J3" t="n">
-        <v>0.558998807364441</v>
+        <v>0.475340748466772</v>
       </c>
       <c r="K3" t="n">
-        <v>0.460086498093939</v>
+        <v>0.511153928037327</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.403565123193363</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.487230476694949</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B4" t="n">
-        <v>0.235563603528592</v>
+        <v>0.201575792365658</v>
       </c>
       <c r="C4" t="n">
-        <v>0.192009615742423</v>
+        <v>0.210183557607978</v>
       </c>
       <c r="D4" t="n">
-        <v>0.28397902829881</v>
+        <v>0.220892594421214</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0422229809409492</v>
+        <v>0.187577920296535</v>
       </c>
       <c r="F4" t="n">
-        <v>0.148934019877346</v>
+        <v>0.260906731374166</v>
       </c>
       <c r="G4" t="n">
-        <v>0.244114390103491</v>
+        <v>0.151977359703953</v>
       </c>
       <c r="H4" t="n">
-        <v>0.29425561428888</v>
+        <v>0.278004511266309</v>
       </c>
       <c r="I4" t="n">
-        <v>0.17381038205627</v>
+        <v>0.176503143487998</v>
       </c>
       <c r="J4" t="n">
-        <v>0.200228432646575</v>
+        <v>0.128881681346873</v>
       </c>
       <c r="K4" t="n">
-        <v>0.181965591971567</v>
+        <v>0.0428517575001988</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.238102682791992</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.251348234707355</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0661378360743018</v>
+        <v>0.0770431917964096</v>
       </c>
       <c r="C5" t="n">
-        <v>0.117417030403255</v>
+        <v>0.0955615884735393</v>
       </c>
       <c r="D5" t="n">
-        <v>0.14737397327551</v>
+        <v>0.0749692649262578</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0210618144101098</v>
+        <v>0.124080695602018</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0908921574509138</v>
+        <v>0.143140884360442</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0972110483680121</v>
+        <v>0.0863160865058478</v>
       </c>
       <c r="H5" t="n">
-        <v>0.119482879484785</v>
+        <v>0.0946201891506097</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0510739198612261</v>
+        <v>0.0477804734241556</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0536130009809188</v>
+        <v>0.0527620838781367</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0896189604511872</v>
+        <v>0.0205057605083795</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.0943640816854344</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.0767540125322709</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0761853299328478</v>
+        <v>0.101711553230201</v>
       </c>
       <c r="C6" t="n">
-        <v>0.104358469619261</v>
+        <v>0.103099099754537</v>
       </c>
       <c r="D6" t="n">
-        <v>0.118711947628733</v>
+        <v>0.0770823072442444</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0243882848262774</v>
+        <v>0.118378909033328</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0681470589128383</v>
+        <v>0.117618086381137</v>
       </c>
       <c r="G6" t="n">
-        <v>0.182638939282045</v>
+        <v>0.0781896468389716</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0976383557378283</v>
+        <v>0.0926446206331375</v>
       </c>
       <c r="I6" t="n">
-        <v>0.126603223198367</v>
+        <v>0.113923971501983</v>
       </c>
       <c r="J6" t="n">
-        <v>0.127389136056574</v>
+        <v>0.137698382175177</v>
       </c>
       <c r="K6" t="n">
-        <v>0.12590755404796</v>
+        <v>0.0237965126131828</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.170842919046543</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.124857726001328</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/global_movement_positive.xlsx
+++ b/xlsx/country_comparison/global_movement_positive.xlsx
@@ -443,40 +443,40 @@
         <v>13</v>
       </c>
       <c r="B2" t="n">
-        <v>0.316020506276079</v>
+        <v>0.322115915493114</v>
       </c>
       <c r="C2" t="n">
-        <v>0.279543596635423</v>
+        <v>0.278454052010784</v>
       </c>
       <c r="D2" t="n">
         <v>0.2964725127803</v>
       </c>
       <c r="E2" t="n">
-        <v>0.292842474423991</v>
+        <v>0.293196766100298</v>
       </c>
       <c r="F2" t="n">
-        <v>0.185514454040861</v>
+        <v>0.182851860575033</v>
       </c>
       <c r="G2" t="n">
         <v>0.284960091155011</v>
       </c>
       <c r="H2" t="n">
-        <v>0.265356112968132</v>
+        <v>0.260280470194303</v>
       </c>
       <c r="I2" t="n">
-        <v>0.325048247399732</v>
+        <v>0.325881605258983</v>
       </c>
       <c r="J2" t="n">
-        <v>0.386827025445852</v>
+        <v>0.37742300710625</v>
       </c>
       <c r="K2" t="n">
         <v>0.43823230383526</v>
       </c>
       <c r="L2" t="n">
-        <v>0.26364498200857</v>
+        <v>0.264449139606132</v>
       </c>
       <c r="M2" t="n">
-        <v>0.313910668370819</v>
+        <v>0.331087271377607</v>
       </c>
     </row>
     <row r="3">
@@ -484,40 +484,40 @@
         <v>14</v>
       </c>
       <c r="B3" t="n">
-        <v>0.512219604565784</v>
+        <v>0.517674560011427</v>
       </c>
       <c r="C3" t="n">
-        <v>0.542896550674237</v>
+        <v>0.547948541409348</v>
       </c>
       <c r="D3" t="n">
         <v>0.535827320778905</v>
       </c>
       <c r="E3" t="n">
-        <v>0.539225355860669</v>
+        <v>0.548908286848178</v>
       </c>
       <c r="F3" t="n">
-        <v>0.574019337287482</v>
+        <v>0.576345808338128</v>
       </c>
       <c r="G3" t="n">
         <v>0.522350021312604</v>
       </c>
       <c r="H3" t="n">
-        <v>0.555062534757864</v>
+        <v>0.561585410973727</v>
       </c>
       <c r="I3" t="n">
-        <v>0.53810514158223</v>
+        <v>0.547238884124501</v>
       </c>
       <c r="J3" t="n">
-        <v>0.475340748466772</v>
+        <v>0.476255041432942</v>
       </c>
       <c r="K3" t="n">
         <v>0.511153928037327</v>
       </c>
       <c r="L3" t="n">
-        <v>0.403565123193363</v>
+        <v>0.401278098412998</v>
       </c>
       <c r="M3" t="n">
-        <v>0.487230476694949</v>
+        <v>0.495988818395595</v>
       </c>
     </row>
     <row r="4">
@@ -525,40 +525,40 @@
         <v>15</v>
       </c>
       <c r="B4" t="n">
-        <v>0.201575792365658</v>
+        <v>0.192929663925614</v>
       </c>
       <c r="C4" t="n">
-        <v>0.210183557607978</v>
+        <v>0.20949459123845</v>
       </c>
       <c r="D4" t="n">
         <v>0.220892594421214</v>
       </c>
       <c r="E4" t="n">
-        <v>0.187577920296535</v>
+        <v>0.182762601742789</v>
       </c>
       <c r="F4" t="n">
-        <v>0.260906731374166</v>
+        <v>0.26320057651634</v>
       </c>
       <c r="G4" t="n">
         <v>0.151977359703953</v>
       </c>
       <c r="H4" t="n">
-        <v>0.278004511266309</v>
+        <v>0.27200012225453</v>
       </c>
       <c r="I4" t="n">
-        <v>0.176503143487998</v>
+        <v>0.18008493572644</v>
       </c>
       <c r="J4" t="n">
-        <v>0.128881681346873</v>
+        <v>0.13625994835579</v>
       </c>
       <c r="K4" t="n">
         <v>0.0428517575001988</v>
       </c>
       <c r="L4" t="n">
-        <v>0.238102682791992</v>
+        <v>0.237811945093562</v>
       </c>
       <c r="M4" t="n">
-        <v>0.251348234707355</v>
+        <v>0.229459075567355</v>
       </c>
     </row>
     <row r="5">
@@ -566,40 +566,40 @@
         <v>16</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0770431917964096</v>
+        <v>0.0741724760452753</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0955615884735393</v>
+        <v>0.0968522879988718</v>
       </c>
       <c r="D5" t="n">
         <v>0.0749692649262578</v>
       </c>
       <c r="E5" t="n">
-        <v>0.124080695602018</v>
+        <v>0.121575293260873</v>
       </c>
       <c r="F5" t="n">
-        <v>0.143140884360442</v>
+        <v>0.14624954820818</v>
       </c>
       <c r="G5" t="n">
         <v>0.0863160865058478</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0946201891506097</v>
+        <v>0.0964717909609848</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0477804734241556</v>
+        <v>0.0514636631130922</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0527620838781367</v>
+        <v>0.0721450606836321</v>
       </c>
       <c r="K5" t="n">
         <v>0.0205057605083795</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0943640816854344</v>
+        <v>0.0926417918104176</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0767540125322709</v>
+        <v>0.0678957041133614</v>
       </c>
     </row>
     <row r="6">
@@ -607,40 +607,40 @@
         <v>17</v>
       </c>
       <c r="B6" t="n">
-        <v>0.101711553230201</v>
+        <v>0.0994714390558732</v>
       </c>
       <c r="C6" t="n">
-        <v>0.103099099754537</v>
+        <v>0.103356517092613</v>
       </c>
       <c r="D6" t="n">
         <v>0.0770823072442444</v>
       </c>
       <c r="E6" t="n">
-        <v>0.118378909033328</v>
+        <v>0.115468970540501</v>
       </c>
       <c r="F6" t="n">
-        <v>0.117618086381137</v>
+        <v>0.116967669579357</v>
       </c>
       <c r="G6" t="n">
         <v>0.0781896468389716</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0926446206331375</v>
+        <v>0.0966229359427587</v>
       </c>
       <c r="I6" t="n">
-        <v>0.113923971501983</v>
+        <v>0.116836064800843</v>
       </c>
       <c r="J6" t="n">
-        <v>0.137698382175177</v>
+        <v>0.137204384172908</v>
       </c>
       <c r="K6" t="n">
         <v>0.0237965126131828</v>
       </c>
       <c r="L6" t="n">
-        <v>0.170842919046543</v>
+        <v>0.172693286630297</v>
       </c>
       <c r="M6" t="n">
-        <v>0.124857726001328</v>
+        <v>0.118518731799635</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/global_movement_positive.xlsx
+++ b/xlsx/country_comparison/global_movement_positive.xlsx
@@ -443,40 +443,40 @@
         <v>13</v>
       </c>
       <c r="B2" t="n">
-        <v>0.322115915493114</v>
+        <v>0.320926957001515</v>
       </c>
       <c r="C2" t="n">
-        <v>0.278454052010784</v>
+        <v>0.278475647107507</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2964725127803</v>
+        <v>0.294093954964281</v>
       </c>
       <c r="E2" t="n">
-        <v>0.293196766100298</v>
+        <v>0.306999196784687</v>
       </c>
       <c r="F2" t="n">
-        <v>0.182851860575033</v>
+        <v>0.182911175028113</v>
       </c>
       <c r="G2" t="n">
-        <v>0.284960091155011</v>
+        <v>0.290122876594547</v>
       </c>
       <c r="H2" t="n">
-        <v>0.260280470194303</v>
+        <v>0.253886167121302</v>
       </c>
       <c r="I2" t="n">
-        <v>0.325881605258983</v>
+        <v>0.31438130842165</v>
       </c>
       <c r="J2" t="n">
-        <v>0.37742300710625</v>
+        <v>0.362537857136665</v>
       </c>
       <c r="K2" t="n">
-        <v>0.43823230383526</v>
+        <v>0.437685282340813</v>
       </c>
       <c r="L2" t="n">
-        <v>0.264449139606132</v>
+        <v>0.262613866561213</v>
       </c>
       <c r="M2" t="n">
-        <v>0.331087271377607</v>
+        <v>0.328319631097193</v>
       </c>
     </row>
     <row r="3">
@@ -484,40 +484,40 @@
         <v>14</v>
       </c>
       <c r="B3" t="n">
-        <v>0.517674560011427</v>
+        <v>0.517681293588919</v>
       </c>
       <c r="C3" t="n">
-        <v>0.547948541409348</v>
+        <v>0.54627578656303</v>
       </c>
       <c r="D3" t="n">
-        <v>0.535827320778905</v>
+        <v>0.534923147437985</v>
       </c>
       <c r="E3" t="n">
-        <v>0.548908286848178</v>
+        <v>0.526521842869553</v>
       </c>
       <c r="F3" t="n">
-        <v>0.576345808338128</v>
+        <v>0.575681110382423</v>
       </c>
       <c r="G3" t="n">
-        <v>0.522350021312604</v>
+        <v>0.541447431254404</v>
       </c>
       <c r="H3" t="n">
-        <v>0.561585410973727</v>
+        <v>0.56757184923964</v>
       </c>
       <c r="I3" t="n">
-        <v>0.547238884124501</v>
+        <v>0.552165435505529</v>
       </c>
       <c r="J3" t="n">
-        <v>0.476255041432942</v>
+        <v>0.477777082615971</v>
       </c>
       <c r="K3" t="n">
-        <v>0.511153928037327</v>
+        <v>0.512682328274899</v>
       </c>
       <c r="L3" t="n">
-        <v>0.401278098412998</v>
+        <v>0.401448708245477</v>
       </c>
       <c r="M3" t="n">
-        <v>0.495988818395595</v>
+        <v>0.497295721158366</v>
       </c>
     </row>
     <row r="4">
@@ -525,40 +525,40 @@
         <v>15</v>
       </c>
       <c r="B4" t="n">
-        <v>0.192929663925614</v>
+        <v>0.193757331037532</v>
       </c>
       <c r="C4" t="n">
-        <v>0.20949459123845</v>
+        <v>0.210178986079405</v>
       </c>
       <c r="D4" t="n">
-        <v>0.220892594421214</v>
+        <v>0.222373163189663</v>
       </c>
       <c r="E4" t="n">
-        <v>0.182762601742789</v>
+        <v>0.181082414160383</v>
       </c>
       <c r="F4" t="n">
-        <v>0.26320057651634</v>
+        <v>0.263929780996636</v>
       </c>
       <c r="G4" t="n">
-        <v>0.151977359703953</v>
+        <v>0.147682919391645</v>
       </c>
       <c r="H4" t="n">
-        <v>0.27200012225453</v>
+        <v>0.270559772268355</v>
       </c>
       <c r="I4" t="n">
-        <v>0.18008493572644</v>
+        <v>0.187224275049165</v>
       </c>
       <c r="J4" t="n">
-        <v>0.13625994835579</v>
+        <v>0.138422252187228</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0428517575001988</v>
+        <v>0.0414235973359027</v>
       </c>
       <c r="L4" t="n">
-        <v>0.237811945093562</v>
+        <v>0.239448322059387</v>
       </c>
       <c r="M4" t="n">
-        <v>0.229459075567355</v>
+        <v>0.231271689923813</v>
       </c>
     </row>
     <row r="5">
@@ -566,40 +566,40 @@
         <v>16</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0741724760452753</v>
+        <v>0.0738340049950829</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0968522879988718</v>
+        <v>0.0936479323164794</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0749692649262578</v>
+        <v>0.0748321566031003</v>
       </c>
       <c r="E5" t="n">
-        <v>0.121575293260873</v>
+        <v>0.113455534552083</v>
       </c>
       <c r="F5" t="n">
-        <v>0.14624954820818</v>
+        <v>0.146585323549601</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0863160865058478</v>
+        <v>0.0756771377174381</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0964717909609848</v>
+        <v>0.0950565133040533</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0514636631130922</v>
+        <v>0.0526514577600121</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0721450606836321</v>
+        <v>0.0582779037491039</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0205057605083795</v>
+        <v>0.019059891303726</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0926417918104176</v>
+        <v>0.0917478520938045</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0678957041133614</v>
+        <v>0.071315755441049</v>
       </c>
     </row>
     <row r="6">
@@ -607,40 +607,40 @@
         <v>17</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0994714390558732</v>
+        <v>0.10124092951548</v>
       </c>
       <c r="C6" t="n">
-        <v>0.103356517092613</v>
+        <v>0.104803107568438</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0770823072442444</v>
+        <v>0.0783920047707798</v>
       </c>
       <c r="E6" t="n">
-        <v>0.115468970540501</v>
+        <v>0.119136121104366</v>
       </c>
       <c r="F6" t="n">
-        <v>0.116967669579357</v>
+        <v>0.117764178444178</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0781896468389716</v>
+        <v>0.0665018894486479</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0966229359427587</v>
+        <v>0.0991777516511175</v>
       </c>
       <c r="I6" t="n">
-        <v>0.116836064800843</v>
+        <v>0.12373315427868</v>
       </c>
       <c r="J6" t="n">
-        <v>0.137204384172908</v>
+        <v>0.133371788659431</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0237965126131828</v>
+        <v>0.0243397353076628</v>
       </c>
       <c r="L6" t="n">
-        <v>0.172693286630297</v>
+        <v>0.175584168878879</v>
       </c>
       <c r="M6" t="n">
-        <v>0.118518731799635</v>
+        <v>0.121043041081575</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/global_movement_positive.xlsx
+++ b/xlsx/country_comparison/global_movement_positive.xlsx
@@ -458,7 +458,7 @@
         <v>0.182911175028113</v>
       </c>
       <c r="G2" t="n">
-        <v>0.290122876594547</v>
+        <v>0.290122876594546</v>
       </c>
       <c r="H2" t="n">
         <v>0.253886167121302</v>
@@ -599,7 +599,7 @@
         <v>0.0917478520938045</v>
       </c>
       <c r="M5" t="n">
-        <v>0.071315755441049</v>
+        <v>0.0713157554410489</v>
       </c>
     </row>
     <row r="6">
@@ -613,7 +613,7 @@
         <v>0.104803107568438</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0783920047707798</v>
+        <v>0.0783920047707799</v>
       </c>
       <c r="E6" t="n">
         <v>0.119136121104366</v>

--- a/xlsx/country_comparison/global_movement_positive.xlsx
+++ b/xlsx/country_comparison/global_movement_positive.xlsx
@@ -443,7 +443,7 @@
         <v>13</v>
       </c>
       <c r="B2" t="n">
-        <v>0.320926957001515</v>
+        <v>0.320837288771612</v>
       </c>
       <c r="C2" t="n">
         <v>0.278475647107507</v>
@@ -470,13 +470,13 @@
         <v>0.362537857136665</v>
       </c>
       <c r="K2" t="n">
-        <v>0.437685282340813</v>
+        <v>0.43758941529404</v>
       </c>
       <c r="L2" t="n">
         <v>0.262613866561213</v>
       </c>
       <c r="M2" t="n">
-        <v>0.328319631097193</v>
+        <v>0.328093121100358</v>
       </c>
     </row>
     <row r="3">
@@ -484,7 +484,7 @@
         <v>14</v>
       </c>
       <c r="B3" t="n">
-        <v>0.517681293588919</v>
+        <v>0.517788182474842</v>
       </c>
       <c r="C3" t="n">
         <v>0.54627578656303</v>
@@ -505,19 +505,19 @@
         <v>0.56757184923964</v>
       </c>
       <c r="I3" t="n">
-        <v>0.552165435505529</v>
+        <v>0.55216543550553</v>
       </c>
       <c r="J3" t="n">
         <v>0.477777082615971</v>
       </c>
       <c r="K3" t="n">
-        <v>0.512682328274899</v>
+        <v>0.512806185247762</v>
       </c>
       <c r="L3" t="n">
         <v>0.401448708245477</v>
       </c>
       <c r="M3" t="n">
-        <v>0.497295721158366</v>
+        <v>0.497608063879741</v>
       </c>
     </row>
     <row r="4">
@@ -525,7 +525,7 @@
         <v>15</v>
       </c>
       <c r="B4" t="n">
-        <v>0.193757331037532</v>
+        <v>0.193840385798628</v>
       </c>
       <c r="C4" t="n">
         <v>0.210178986079405</v>
@@ -552,13 +552,13 @@
         <v>0.138422252187228</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0414235973359027</v>
+        <v>0.041389097327218</v>
       </c>
       <c r="L4" t="n">
         <v>0.239448322059387</v>
       </c>
       <c r="M4" t="n">
-        <v>0.231271689923813</v>
+        <v>0.231353361940565</v>
       </c>
     </row>
     <row r="5">
@@ -566,7 +566,7 @@
         <v>16</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0738340049950829</v>
+        <v>0.0738534633965688</v>
       </c>
       <c r="C5" t="n">
         <v>0.0936479323164794</v>
@@ -593,13 +593,13 @@
         <v>0.0582779037491039</v>
       </c>
       <c r="K5" t="n">
-        <v>0.019059891303726</v>
+        <v>0.0190034293997217</v>
       </c>
       <c r="L5" t="n">
         <v>0.0917478520938045</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0713157554410489</v>
+        <v>0.0713990117454269</v>
       </c>
     </row>
     <row r="6">
@@ -607,7 +607,7 @@
         <v>17</v>
       </c>
       <c r="B6" t="n">
-        <v>0.10124092951548</v>
+        <v>0.101223831063597</v>
       </c>
       <c r="C6" t="n">
         <v>0.104803107568438</v>
@@ -634,13 +634,13 @@
         <v>0.133371788659431</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0243397353076628</v>
+        <v>0.0243564982046231</v>
       </c>
       <c r="L6" t="n">
         <v>0.175584168878879</v>
       </c>
       <c r="M6" t="n">
-        <v>0.121043041081575</v>
+        <v>0.120912756712212</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/global_movement_positive.xlsx
+++ b/xlsx/country_comparison/global_movement_positive.xlsx
@@ -458,7 +458,7 @@
         <v>0.182911175028113</v>
       </c>
       <c r="G2" t="n">
-        <v>0.290122876594546</v>
+        <v>0.290122876594547</v>
       </c>
       <c r="H2" t="n">
         <v>0.253886167121302</v>
@@ -552,7 +552,7 @@
         <v>0.138422252187228</v>
       </c>
       <c r="K4" t="n">
-        <v>0.041389097327218</v>
+        <v>0.0413890973272179</v>
       </c>
       <c r="L4" t="n">
         <v>0.239448322059387</v>
